--- a/odds/The Girl's Room 💞🏈 2025 Betting Odds.xlsx
+++ b/odds/The Girl's Room 💞🏈 2025 Betting Odds.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="79">
   <si>
     <t>Record</t>
   </si>
@@ -33,12 +33,12 @@
     <t>Becca’s Ballers</t>
   </si>
   <si>
+    <t>Flock Around and Find Out</t>
+  </si>
+  <si>
     <t>Tush Push Director 🍑</t>
   </si>
   <si>
-    <t>Flock Around and Find Out</t>
-  </si>
-  <si>
     <t>Say Cheese 🧀💚🧀</t>
   </si>
   <si>
@@ -54,18 +54,18 @@
     <t>Nothing Beats A Jets 2 Holiday</t>
   </si>
   <si>
+    <t>Men in Tight(End)s</t>
+  </si>
+  <si>
     <t>Gridiron Grace</t>
   </si>
   <si>
-    <t>Men in Tight(End)s</t>
+    <t>Faith's Fantastic Team</t>
   </si>
   <si>
     <t>Face Down Sacks Up</t>
   </si>
   <si>
-    <t>Faith's Fantastic Team</t>
-  </si>
-  <si>
     <t>Sacks and the City</t>
   </si>
   <si>
@@ -108,40 +108,43 @@
     <t>2-9</t>
   </si>
   <si>
-    <t>99.9%</t>
-  </si>
-  <si>
-    <t>99.4%</t>
-  </si>
-  <si>
-    <t>98.9%</t>
-  </si>
-  <si>
-    <t>75.1%</t>
-  </si>
-  <si>
-    <t>57.7%</t>
-  </si>
-  <si>
-    <t>37.0%</t>
-  </si>
-  <si>
-    <t>34.0%</t>
-  </si>
-  <si>
-    <t>15.1%</t>
-  </si>
-  <si>
-    <t>13.6%</t>
-  </si>
-  <si>
-    <t>5.2%</t>
-  </si>
-  <si>
-    <t>4.1%</t>
-  </si>
-  <si>
-    <t>1.8%</t>
+    <t>100.0%</t>
+  </si>
+  <si>
+    <t>99.0%</t>
+  </si>
+  <si>
+    <t>98.8%</t>
+  </si>
+  <si>
+    <t>76.1%</t>
+  </si>
+  <si>
+    <t>59.1%</t>
+  </si>
+  <si>
+    <t>57.3%</t>
+  </si>
+  <si>
+    <t>35.9%</t>
+  </si>
+  <si>
+    <t>34.1%</t>
+  </si>
+  <si>
+    <t>13.8%</t>
+  </si>
+  <si>
+    <t>13.2%</t>
+  </si>
+  <si>
+    <t>6.0%</t>
+  </si>
+  <si>
+    <t>5.0%</t>
+  </si>
+  <si>
+    <t>1.2%</t>
   </si>
   <si>
     <t>0.5%</t>
@@ -150,40 +153,43 @@
     <t>0.0%</t>
   </si>
   <si>
-    <t>-99900</t>
-  </si>
-  <si>
-    <t>-16567</t>
-  </si>
-  <si>
-    <t>-8991</t>
-  </si>
-  <si>
-    <t>-302</t>
-  </si>
-  <si>
-    <t>-136</t>
-  </si>
-  <si>
-    <t>+170</t>
-  </si>
-  <si>
-    <t>+194</t>
-  </si>
-  <si>
-    <t>+562</t>
-  </si>
-  <si>
-    <t>+635</t>
-  </si>
-  <si>
-    <t>+1823</t>
-  </si>
-  <si>
-    <t>+2339</t>
-  </si>
-  <si>
-    <t>+5456</t>
+    <t>-∞</t>
+  </si>
+  <si>
+    <t>-9900</t>
+  </si>
+  <si>
+    <t>-8233</t>
+  </si>
+  <si>
+    <t>-318</t>
+  </si>
+  <si>
+    <t>-144</t>
+  </si>
+  <si>
+    <t>-134</t>
+  </si>
+  <si>
+    <t>+179</t>
+  </si>
+  <si>
+    <t>+193</t>
+  </si>
+  <si>
+    <t>+625</t>
+  </si>
+  <si>
+    <t>+658</t>
+  </si>
+  <si>
+    <t>+1567</t>
+  </si>
+  <si>
+    <t>+1900</t>
+  </si>
+  <si>
+    <t>+8233</t>
   </si>
   <si>
     <t>+19900</t>
@@ -195,70 +201,58 @@
     <t>Probability</t>
   </si>
   <si>
-    <t>61.2%</t>
-  </si>
-  <si>
-    <t>18.7%</t>
-  </si>
-  <si>
-    <t>18.3%</t>
-  </si>
-  <si>
-    <t>0.9%</t>
-  </si>
-  <si>
-    <t>0.7%</t>
-  </si>
-  <si>
-    <t>0.2%</t>
-  </si>
-  <si>
-    <t>-158</t>
-  </si>
-  <si>
-    <t>+435</t>
-  </si>
-  <si>
-    <t>+446</t>
-  </si>
-  <si>
-    <t>+11011</t>
-  </si>
-  <si>
-    <t>+14186</t>
-  </si>
-  <si>
-    <t>+49900</t>
-  </si>
-  <si>
-    <t>63.6%</t>
-  </si>
-  <si>
-    <t>19.7%</t>
-  </si>
-  <si>
-    <t>16.0%</t>
-  </si>
-  <si>
-    <t>0.6%</t>
+    <t>62.7%</t>
+  </si>
+  <si>
+    <t>18.8%</t>
+  </si>
+  <si>
+    <t>16.5%</t>
+  </si>
+  <si>
+    <t>1.5%</t>
+  </si>
+  <si>
+    <t>0.4%</t>
   </si>
   <si>
     <t>0.1%</t>
   </si>
   <si>
-    <t>-175</t>
-  </si>
-  <si>
-    <t>+408</t>
-  </si>
-  <si>
-    <t>+525</t>
-  </si>
-  <si>
-    <t>+16567</t>
+    <t>-168</t>
+  </si>
+  <si>
+    <t>+432</t>
+  </si>
+  <si>
+    <t>+506</t>
+  </si>
+  <si>
+    <t>+6567</t>
+  </si>
+  <si>
+    <t>+24900</t>
   </si>
   <si>
     <t>+99900</t>
+  </si>
+  <si>
+    <t>61.5%</t>
+  </si>
+  <si>
+    <t>19.4%</t>
+  </si>
+  <si>
+    <t>18.5%</t>
+  </si>
+  <si>
+    <t>-160</t>
+  </si>
+  <si>
+    <t>+415</t>
+  </si>
+  <si>
+    <t>+441</t>
   </si>
 </sst>
 </file>
@@ -647,7 +641,7 @@
         <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -661,7 +655,7 @@
         <v>31</v>
       </c>
       <c r="D3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -675,7 +669,7 @@
         <v>32</v>
       </c>
       <c r="D4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -689,7 +683,7 @@
         <v>33</v>
       </c>
       <c r="D5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -703,7 +697,7 @@
         <v>34</v>
       </c>
       <c r="D6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -714,10 +708,10 @@
         <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -728,10 +722,10 @@
         <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D8" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -742,10 +736,10 @@
         <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D9" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -756,10 +750,10 @@
         <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D10" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -770,10 +764,10 @@
         <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D11" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -781,13 +775,13 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D12" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -795,13 +789,13 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D13" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -812,10 +806,10 @@
         <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D14" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -826,10 +820,10 @@
         <v>27</v>
       </c>
       <c r="C15" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D15" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -840,10 +834,10 @@
         <v>27</v>
       </c>
       <c r="C16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D16" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -854,10 +848,10 @@
         <v>28</v>
       </c>
       <c r="C17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D17" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -868,10 +862,10 @@
         <v>29</v>
       </c>
       <c r="C18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D18" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -882,10 +876,10 @@
         <v>28</v>
       </c>
       <c r="C19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D19" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -909,7 +903,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -923,38 +917,38 @@
         <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
         <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -965,10 +959,10 @@
         <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -979,10 +973,10 @@
         <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D6" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -993,10 +987,10 @@
         <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1007,38 +1001,38 @@
         <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D8" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D9" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B10" t="s">
         <v>27</v>
       </c>
       <c r="C10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D10" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1049,24 +1043,24 @@
         <v>28</v>
       </c>
       <c r="C11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D11" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D12" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1077,10 +1071,10 @@
         <v>27</v>
       </c>
       <c r="C13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D13" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1091,24 +1085,24 @@
         <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D14" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D15" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1119,10 +1113,10 @@
         <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D16" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1133,10 +1127,10 @@
         <v>29</v>
       </c>
       <c r="C17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D17" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1147,10 +1141,10 @@
         <v>28</v>
       </c>
       <c r="C18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D18" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1161,10 +1155,10 @@
         <v>27</v>
       </c>
       <c r="C19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D19" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1188,7 +1182,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -1202,7 +1196,7 @@
         <v>29</v>
       </c>
       <c r="C2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D2" t="s">
         <v>76</v>
@@ -1216,7 +1210,7 @@
         <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D3" t="s">
         <v>77</v>
@@ -1230,7 +1224,7 @@
         <v>28</v>
       </c>
       <c r="C4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D4" t="s">
         <v>78</v>
@@ -1244,108 +1238,108 @@
         <v>27</v>
       </c>
       <c r="C5" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="D5" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
         <v>27</v>
       </c>
       <c r="C6" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="D6" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D8" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D9" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D10" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D11" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D12" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1356,94 +1350,94 @@
         <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D13" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D14" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D15" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D16" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D17" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D18" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D19" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/odds/The Girl's Room 💞🏈 2025 Betting Odds.xlsx
+++ b/odds/The Girl's Room 💞🏈 2025 Betting Odds.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="73">
   <si>
     <t>Record</t>
   </si>
@@ -30,45 +30,45 @@
     <t>Team</t>
   </si>
   <si>
+    <t>Tush Push Director 🍑</t>
+  </si>
+  <si>
+    <t>Flock Around and Find Out</t>
+  </si>
+  <si>
     <t>Becca’s Ballers</t>
   </si>
   <si>
-    <t>Flock Around and Find Out</t>
-  </si>
-  <si>
-    <t>Tush Push Director 🍑</t>
-  </si>
-  <si>
     <t>Say Cheese 🧀💚🧀</t>
   </si>
   <si>
+    <t xml:space="preserve">Nikki  </t>
+  </si>
+  <si>
     <t xml:space="preserve">Shae's Sunday Scaries </t>
   </si>
   <si>
-    <t xml:space="preserve">Nikki  </t>
-  </si>
-  <si>
     <t>Breezy’s Bros</t>
   </si>
   <si>
     <t>Nothing Beats A Jets 2 Holiday</t>
   </si>
   <si>
+    <t>Face Down Sacks Up</t>
+  </si>
+  <si>
+    <t>Faith's Fantastic Team</t>
+  </si>
+  <si>
+    <t>Gridiron Grace</t>
+  </si>
+  <si>
+    <t>Sacks and the City</t>
+  </si>
+  <si>
     <t>Men in Tight(End)s</t>
   </si>
   <si>
-    <t>Gridiron Grace</t>
-  </si>
-  <si>
-    <t>Faith's Fantastic Team</t>
-  </si>
-  <si>
-    <t>Face Down Sacks Up</t>
-  </si>
-  <si>
-    <t>Sacks and the City</t>
-  </si>
-  <si>
     <t>Lamb of Goedert</t>
   </si>
   <si>
@@ -84,70 +84,73 @@
     <t>Serving Punt</t>
   </si>
   <si>
-    <t>9-2</t>
-  </si>
-  <si>
-    <t>8-3</t>
-  </si>
-  <si>
-    <t>7-4</t>
-  </si>
-  <si>
-    <t>6-5</t>
-  </si>
-  <si>
-    <t>5-6</t>
-  </si>
-  <si>
-    <t>4-7</t>
-  </si>
-  <si>
-    <t>3-8</t>
-  </si>
-  <si>
-    <t>2-9</t>
+    <t>9-3</t>
+  </si>
+  <si>
+    <t>8-4</t>
+  </si>
+  <si>
+    <t>7-5</t>
+  </si>
+  <si>
+    <t>6-5-1</t>
+  </si>
+  <si>
+    <t>6-6</t>
+  </si>
+  <si>
+    <t>5-6-1</t>
+  </si>
+  <si>
+    <t>5-7</t>
+  </si>
+  <si>
+    <t>3-9</t>
+  </si>
+  <si>
+    <t>2-10</t>
+  </si>
+  <si>
+    <t>4-8</t>
   </si>
   <si>
     <t>100.0%</t>
   </si>
   <si>
-    <t>99.0%</t>
-  </si>
-  <si>
-    <t>98.8%</t>
-  </si>
-  <si>
-    <t>76.1%</t>
-  </si>
-  <si>
-    <t>59.1%</t>
-  </si>
-  <si>
-    <t>57.3%</t>
-  </si>
-  <si>
-    <t>35.9%</t>
-  </si>
-  <si>
-    <t>34.1%</t>
-  </si>
-  <si>
-    <t>13.8%</t>
-  </si>
-  <si>
-    <t>13.2%</t>
-  </si>
-  <si>
-    <t>6.0%</t>
-  </si>
-  <si>
-    <t>5.0%</t>
-  </si>
-  <si>
-    <t>1.2%</t>
-  </si>
-  <si>
-    <t>0.5%</t>
+    <t>96.4%</t>
+  </si>
+  <si>
+    <t>46.3%</t>
+  </si>
+  <si>
+    <t>44.6%</t>
+  </si>
+  <si>
+    <t>41.6%</t>
+  </si>
+  <si>
+    <t>31.5%</t>
+  </si>
+  <si>
+    <t>17.5%</t>
+  </si>
+  <si>
+    <t>11.3%</t>
+  </si>
+  <si>
+    <t>3.4%</t>
+  </si>
+  <si>
+    <t>2.7%</t>
+  </si>
+  <si>
+    <t>2.4%</t>
+  </si>
+  <si>
+    <t>1.7%</t>
+  </si>
+  <si>
+    <t>0.6%</t>
   </si>
   <si>
     <t>0.0%</t>
@@ -156,43 +159,40 @@
     <t>-∞</t>
   </si>
   <si>
-    <t>-9900</t>
-  </si>
-  <si>
-    <t>-8233</t>
-  </si>
-  <si>
-    <t>-318</t>
-  </si>
-  <si>
-    <t>-144</t>
-  </si>
-  <si>
-    <t>-134</t>
-  </si>
-  <si>
-    <t>+179</t>
-  </si>
-  <si>
-    <t>+193</t>
-  </si>
-  <si>
-    <t>+625</t>
-  </si>
-  <si>
-    <t>+658</t>
-  </si>
-  <si>
-    <t>+1567</t>
-  </si>
-  <si>
-    <t>+1900</t>
-  </si>
-  <si>
-    <t>+8233</t>
-  </si>
-  <si>
-    <t>+19900</t>
+    <t>-2678</t>
+  </si>
+  <si>
+    <t>+116</t>
+  </si>
+  <si>
+    <t>+124</t>
+  </si>
+  <si>
+    <t>+140</t>
+  </si>
+  <si>
+    <t>+217</t>
+  </si>
+  <si>
+    <t>+471</t>
+  </si>
+  <si>
+    <t>+785</t>
+  </si>
+  <si>
+    <t>+2841</t>
+  </si>
+  <si>
+    <t>+3604</t>
+  </si>
+  <si>
+    <t>+4067</t>
+  </si>
+  <si>
+    <t>+5782</t>
+  </si>
+  <si>
+    <t>+16567</t>
   </si>
   <si>
     <t>+∞</t>
@@ -201,58 +201,40 @@
     <t>Probability</t>
   </si>
   <si>
-    <t>62.7%</t>
-  </si>
-  <si>
-    <t>18.8%</t>
-  </si>
-  <si>
-    <t>16.5%</t>
-  </si>
-  <si>
-    <t>1.5%</t>
-  </si>
-  <si>
-    <t>0.4%</t>
-  </si>
-  <si>
-    <t>0.1%</t>
-  </si>
-  <si>
-    <t>-168</t>
-  </si>
-  <si>
-    <t>+432</t>
-  </si>
-  <si>
-    <t>+506</t>
-  </si>
-  <si>
-    <t>+6567</t>
-  </si>
-  <si>
-    <t>+24900</t>
-  </si>
-  <si>
-    <t>+99900</t>
-  </si>
-  <si>
-    <t>61.5%</t>
-  </si>
-  <si>
-    <t>19.4%</t>
-  </si>
-  <si>
-    <t>18.5%</t>
-  </si>
-  <si>
-    <t>-160</t>
-  </si>
-  <si>
-    <t>+415</t>
-  </si>
-  <si>
-    <t>+441</t>
+    <t>44.4%</t>
+  </si>
+  <si>
+    <t>28.4%</t>
+  </si>
+  <si>
+    <t>25.9%</t>
+  </si>
+  <si>
+    <t>1.3%</t>
+  </si>
+  <si>
+    <t>+125</t>
+  </si>
+  <si>
+    <t>+252</t>
+  </si>
+  <si>
+    <t>+286</t>
+  </si>
+  <si>
+    <t>+7592</t>
+  </si>
+  <si>
+    <t>73.1%</t>
+  </si>
+  <si>
+    <t>25.6%</t>
+  </si>
+  <si>
+    <t>-272</t>
+  </si>
+  <si>
+    <t>+291</t>
   </si>
 </sst>
 </file>
@@ -638,10 +620,10 @@
         <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -649,10 +631,10 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D3" t="s">
         <v>46</v>
@@ -663,13 +645,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
         <v>32</v>
       </c>
       <c r="D4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -677,13 +659,13 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
         <v>33</v>
       </c>
       <c r="D5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -697,7 +679,7 @@
         <v>34</v>
       </c>
       <c r="D6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -711,7 +693,7 @@
         <v>35</v>
       </c>
       <c r="D7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -725,7 +707,7 @@
         <v>36</v>
       </c>
       <c r="D8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -733,13 +715,13 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
         <v>37</v>
       </c>
       <c r="D9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -747,13 +729,13 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C10" t="s">
         <v>38</v>
       </c>
       <c r="D10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -767,7 +749,7 @@
         <v>39</v>
       </c>
       <c r="D11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -775,13 +757,13 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C12" t="s">
         <v>40</v>
       </c>
       <c r="D12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -789,13 +771,13 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
         <v>41</v>
       </c>
       <c r="D13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -803,13 +785,13 @@
         <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C14" t="s">
         <v>42</v>
       </c>
       <c r="D14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -817,13 +799,13 @@
         <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C15" t="s">
         <v>43</v>
       </c>
       <c r="D15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -831,13 +813,13 @@
         <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C16" t="s">
         <v>44</v>
       </c>
       <c r="D16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -845,10 +827,10 @@
         <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D17" t="s">
         <v>59</v>
@@ -859,10 +841,10 @@
         <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D18" t="s">
         <v>59</v>
@@ -873,10 +855,10 @@
         <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D19" t="s">
         <v>59</v>
@@ -911,7 +893,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
         <v>22</v>
@@ -920,7 +902,7 @@
         <v>61</v>
       </c>
       <c r="D2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -928,80 +910,80 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
         <v>62</v>
       </c>
       <c r="D3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
         <v>63</v>
       </c>
       <c r="D4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
         <v>64</v>
       </c>
       <c r="D5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
         <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="D6" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="D7" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D8" t="s">
         <v>59</v>
@@ -1009,13 +991,13 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D9" t="s">
         <v>59</v>
@@ -1023,13 +1005,13 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D10" t="s">
         <v>59</v>
@@ -1037,13 +1019,13 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D11" t="s">
         <v>59</v>
@@ -1051,13 +1033,13 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D12" t="s">
         <v>59</v>
@@ -1065,13 +1047,13 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D13" t="s">
         <v>59</v>
@@ -1079,13 +1061,13 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D14" t="s">
         <v>59</v>
@@ -1093,13 +1075,13 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D15" t="s">
         <v>59</v>
@@ -1110,10 +1092,10 @@
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D16" t="s">
         <v>59</v>
@@ -1124,10 +1106,10 @@
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D17" t="s">
         <v>59</v>
@@ -1138,10 +1120,10 @@
         <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D18" t="s">
         <v>59</v>
@@ -1152,10 +1134,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D19" t="s">
         <v>59</v>
@@ -1193,13 +1175,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1207,13 +1189,13 @@
         <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1221,52 +1203,52 @@
         <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C4" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="D4" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="D6" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D7" t="s">
         <v>59</v>
@@ -1277,10 +1259,10 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D8" t="s">
         <v>59</v>
@@ -1288,13 +1270,13 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D9" t="s">
         <v>59</v>
@@ -1302,13 +1284,13 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D10" t="s">
         <v>59</v>
@@ -1316,13 +1298,13 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D11" t="s">
         <v>59</v>
@@ -1330,13 +1312,13 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D12" t="s">
         <v>59</v>
@@ -1344,13 +1326,13 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D13" t="s">
         <v>59</v>
@@ -1358,13 +1340,13 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D14" t="s">
         <v>59</v>
@@ -1372,13 +1354,13 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B15" t="s">
         <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D15" t="s">
         <v>59</v>
@@ -1389,10 +1371,10 @@
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D16" t="s">
         <v>59</v>
@@ -1403,10 +1385,10 @@
         <v>7</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D17" t="s">
         <v>59</v>
@@ -1414,13 +1396,13 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D18" t="s">
         <v>59</v>
@@ -1431,10 +1413,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D19" t="s">
         <v>59</v>

--- a/odds/The Girl's Room 💞🏈 2025 Betting Odds.xlsx
+++ b/odds/The Girl's Room 💞🏈 2025 Betting Odds.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="62">
   <si>
     <t>Record</t>
   </si>
@@ -33,13 +33,19 @@
     <t>Tush Push Director 🍑</t>
   </si>
   <si>
+    <t>Becca’s Ballers</t>
+  </si>
+  <si>
+    <t>Say Cheese 🧀💚🧀</t>
+  </si>
+  <si>
     <t>Flock Around and Find Out</t>
   </si>
   <si>
-    <t>Becca’s Ballers</t>
-  </si>
-  <si>
-    <t>Say Cheese 🧀💚🧀</t>
+    <t>Nothing Beats A Jets 2 Holiday</t>
+  </si>
+  <si>
+    <t>Face Down Sacks Up</t>
   </si>
   <si>
     <t xml:space="preserve">Nikki  </t>
@@ -51,106 +57,79 @@
     <t>Breezy’s Bros</t>
   </si>
   <si>
-    <t>Nothing Beats A Jets 2 Holiday</t>
-  </si>
-  <si>
-    <t>Face Down Sacks Up</t>
+    <t>Gridiron Grace</t>
   </si>
   <si>
     <t>Faith's Fantastic Team</t>
   </si>
   <si>
-    <t>Gridiron Grace</t>
-  </si>
-  <si>
     <t>Sacks and the City</t>
   </si>
   <si>
+    <t>Serving Punt</t>
+  </si>
+  <si>
+    <t>Nicole's Nifty Team</t>
+  </si>
+  <si>
     <t>Men in Tight(End)s</t>
   </si>
   <si>
+    <t>It's Miller Time</t>
+  </si>
+  <si>
+    <t>Hurts so good</t>
+  </si>
+  <si>
     <t>Lamb of Goedert</t>
   </si>
   <si>
-    <t>It's Miller Time</t>
-  </si>
-  <si>
-    <t>Hurts so good</t>
-  </si>
-  <si>
-    <t>Nicole's Nifty Team</t>
-  </si>
-  <si>
-    <t>Serving Punt</t>
-  </si>
-  <si>
-    <t>9-3</t>
-  </si>
-  <si>
-    <t>8-4</t>
-  </si>
-  <si>
-    <t>7-5</t>
-  </si>
-  <si>
-    <t>6-5-1</t>
-  </si>
-  <si>
-    <t>6-6</t>
-  </si>
-  <si>
-    <t>5-6-1</t>
-  </si>
-  <si>
-    <t>5-7</t>
-  </si>
-  <si>
-    <t>3-9</t>
-  </si>
-  <si>
-    <t>2-10</t>
-  </si>
-  <si>
-    <t>4-8</t>
+    <t>10-3</t>
+  </si>
+  <si>
+    <t>9-4</t>
+  </si>
+  <si>
+    <t>7-6</t>
+  </si>
+  <si>
+    <t>6-6-1</t>
+  </si>
+  <si>
+    <t>6-7</t>
+  </si>
+  <si>
+    <t>5-8</t>
+  </si>
+  <si>
+    <t>3-10</t>
   </si>
   <si>
     <t>100.0%</t>
   </si>
   <si>
-    <t>96.4%</t>
-  </si>
-  <si>
-    <t>46.3%</t>
-  </si>
-  <si>
-    <t>44.6%</t>
-  </si>
-  <si>
-    <t>41.6%</t>
+    <t>67.2%</t>
+  </si>
+  <si>
+    <t>39.4%</t>
   </si>
   <si>
     <t>31.5%</t>
   </si>
   <si>
-    <t>17.5%</t>
-  </si>
-  <si>
-    <t>11.3%</t>
-  </si>
-  <si>
-    <t>3.4%</t>
-  </si>
-  <si>
-    <t>2.7%</t>
-  </si>
-  <si>
-    <t>2.4%</t>
-  </si>
-  <si>
-    <t>1.7%</t>
-  </si>
-  <si>
-    <t>0.6%</t>
+    <t>27.2%</t>
+  </si>
+  <si>
+    <t>20.7%</t>
+  </si>
+  <si>
+    <t>11.8%</t>
+  </si>
+  <si>
+    <t>2.1%</t>
+  </si>
+  <si>
+    <t>0.1%</t>
   </si>
   <si>
     <t>0.0%</t>
@@ -159,40 +138,28 @@
     <t>-∞</t>
   </si>
   <si>
-    <t>-2678</t>
-  </si>
-  <si>
-    <t>+116</t>
-  </si>
-  <si>
-    <t>+124</t>
-  </si>
-  <si>
-    <t>+140</t>
+    <t>-205</t>
+  </si>
+  <si>
+    <t>+154</t>
   </si>
   <si>
     <t>+217</t>
   </si>
   <si>
-    <t>+471</t>
-  </si>
-  <si>
-    <t>+785</t>
-  </si>
-  <si>
-    <t>+2841</t>
-  </si>
-  <si>
-    <t>+3604</t>
-  </si>
-  <si>
-    <t>+4067</t>
-  </si>
-  <si>
-    <t>+5782</t>
-  </si>
-  <si>
-    <t>+16567</t>
+    <t>+268</t>
+  </si>
+  <si>
+    <t>+383</t>
+  </si>
+  <si>
+    <t>+747</t>
+  </si>
+  <si>
+    <t>+4662</t>
+  </si>
+  <si>
+    <t>+99900</t>
   </si>
   <si>
     <t>+∞</t>
@@ -201,40 +168,40 @@
     <t>Probability</t>
   </si>
   <si>
-    <t>44.4%</t>
-  </si>
-  <si>
-    <t>28.4%</t>
-  </si>
-  <si>
-    <t>25.9%</t>
-  </si>
-  <si>
-    <t>1.3%</t>
-  </si>
-  <si>
-    <t>+125</t>
-  </si>
-  <si>
-    <t>+252</t>
-  </si>
-  <si>
-    <t>+286</t>
-  </si>
-  <si>
-    <t>+7592</t>
-  </si>
-  <si>
-    <t>73.1%</t>
-  </si>
-  <si>
-    <t>25.6%</t>
-  </si>
-  <si>
-    <t>-272</t>
-  </si>
-  <si>
-    <t>+291</t>
+    <t>43.8%</t>
+  </si>
+  <si>
+    <t>30.2%</t>
+  </si>
+  <si>
+    <t>25.7%</t>
+  </si>
+  <si>
+    <t>0.3%</t>
+  </si>
+  <si>
+    <t>+128</t>
+  </si>
+  <si>
+    <t>+231</t>
+  </si>
+  <si>
+    <t>+289</t>
+  </si>
+  <si>
+    <t>+33233</t>
+  </si>
+  <si>
+    <t>61.8%</t>
+  </si>
+  <si>
+    <t>38.1%</t>
+  </si>
+  <si>
+    <t>-162</t>
+  </si>
+  <si>
+    <t>+162</t>
   </si>
 </sst>
 </file>
@@ -620,10 +587,10 @@
         <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D2" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -634,10 +601,10 @@
         <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D3" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -645,13 +612,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D4" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -659,13 +626,13 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D5" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -676,10 +643,10 @@
         <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D6" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -687,13 +654,13 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D7" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -701,13 +668,13 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D8" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -715,13 +682,13 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D9" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -729,13 +696,13 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D10" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -746,10 +713,10 @@
         <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D11" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -757,13 +724,13 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D12" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -774,10 +741,10 @@
         <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D13" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -785,13 +752,13 @@
         <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C14" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D14" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -802,10 +769,10 @@
         <v>28</v>
       </c>
       <c r="C15" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D15" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -813,13 +780,13 @@
         <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C16" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D16" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -827,13 +794,13 @@
         <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C17" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D17" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -841,13 +808,13 @@
         <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C18" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D18" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -855,13 +822,13 @@
         <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C19" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D19" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -885,7 +852,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -893,30 +860,30 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
         <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="D2" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
         <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="D3" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -927,94 +894,94 @@
         <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="D4" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
         <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="D5" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
         <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D6" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D7" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D8" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C9" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D9" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D10" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1025,122 +992,122 @@
         <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D11" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C12" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D12" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D13" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C14" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D14" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B15" t="s">
         <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D15" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D16" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C17" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D17" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C18" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D18" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C19" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D19" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1164,7 +1131,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -1175,97 +1142,97 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C2" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="D2" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D3" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C4" t="s">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="D4" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D5" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D6" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D7" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D8" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1276,122 +1243,122 @@
         <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D9" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
         <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D10" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B11" t="s">
         <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D11" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C12" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D12" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C13" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D13" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B14" t="s">
         <v>22</v>
       </c>
       <c r="C14" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D14" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B15" t="s">
         <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D15" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D16" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B17" t="s">
         <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D17" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1402,24 +1369,24 @@
         <v>22</v>
       </c>
       <c r="C18" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D18" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C19" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D19" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/odds/The Girl's Room 💞🏈 2025 Betting Odds.xlsx
+++ b/odds/The Girl's Room 💞🏈 2025 Betting Odds.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="57">
   <si>
     <t>Record</t>
   </si>
@@ -36,100 +36,97 @@
     <t>Becca’s Ballers</t>
   </si>
   <si>
+    <t>Flock Around and Find Out</t>
+  </si>
+  <si>
     <t>Say Cheese 🧀💚🧀</t>
   </si>
   <si>
-    <t>Flock Around and Find Out</t>
-  </si>
-  <si>
     <t>Nothing Beats A Jets 2 Holiday</t>
   </si>
   <si>
+    <t xml:space="preserve">Nikki  </t>
+  </si>
+  <si>
     <t>Face Down Sacks Up</t>
   </si>
   <si>
-    <t xml:space="preserve">Nikki  </t>
-  </si>
-  <si>
     <t xml:space="preserve">Shae's Sunday Scaries </t>
   </si>
   <si>
+    <t>It's Miller Time</t>
+  </si>
+  <si>
+    <t>Serving Punt</t>
+  </si>
+  <si>
+    <t>Nicole's Nifty Team</t>
+  </si>
+  <si>
+    <t>Men in Tight(End)s</t>
+  </si>
+  <si>
     <t>Breezy’s Bros</t>
   </si>
   <si>
+    <t>Sacks and the City</t>
+  </si>
+  <si>
     <t>Gridiron Grace</t>
   </si>
   <si>
+    <t>Hurts so good</t>
+  </si>
+  <si>
     <t>Faith's Fantastic Team</t>
   </si>
   <si>
-    <t>Sacks and the City</t>
-  </si>
-  <si>
-    <t>Serving Punt</t>
-  </si>
-  <si>
-    <t>Nicole's Nifty Team</t>
-  </si>
-  <si>
-    <t>Men in Tight(End)s</t>
-  </si>
-  <si>
-    <t>It's Miller Time</t>
-  </si>
-  <si>
-    <t>Hurts so good</t>
-  </si>
-  <si>
     <t>Lamb of Goedert</t>
   </si>
   <si>
-    <t>10-3</t>
-  </si>
-  <si>
-    <t>9-4</t>
-  </si>
-  <si>
-    <t>7-6</t>
-  </si>
-  <si>
-    <t>6-6-1</t>
-  </si>
-  <si>
-    <t>6-7</t>
-  </si>
-  <si>
-    <t>5-8</t>
-  </si>
-  <si>
-    <t>3-10</t>
+    <t>11-3</t>
+  </si>
+  <si>
+    <t>10-4</t>
+  </si>
+  <si>
+    <t>8-6</t>
+  </si>
+  <si>
+    <t>7-6-1</t>
+  </si>
+  <si>
+    <t>7-7</t>
+  </si>
+  <si>
+    <t>5-9</t>
+  </si>
+  <si>
+    <t>6-8</t>
+  </si>
+  <si>
+    <t>4-10</t>
+  </si>
+  <si>
+    <t>6-7-1</t>
+  </si>
+  <si>
+    <t>3-11</t>
   </si>
   <si>
     <t>100.0%</t>
   </si>
   <si>
-    <t>67.2%</t>
-  </si>
-  <si>
-    <t>39.4%</t>
-  </si>
-  <si>
-    <t>31.5%</t>
-  </si>
-  <si>
-    <t>27.2%</t>
-  </si>
-  <si>
-    <t>20.7%</t>
-  </si>
-  <si>
-    <t>11.8%</t>
-  </si>
-  <si>
-    <t>2.1%</t>
-  </si>
-  <si>
-    <t>0.1%</t>
+    <t>90.2%</t>
+  </si>
+  <si>
+    <t>61.4%</t>
+  </si>
+  <si>
+    <t>45.1%</t>
+  </si>
+  <si>
+    <t>3.3%</t>
   </si>
   <si>
     <t>0.0%</t>
@@ -138,28 +135,16 @@
     <t>-∞</t>
   </si>
   <si>
-    <t>-205</t>
-  </si>
-  <si>
-    <t>+154</t>
-  </si>
-  <si>
-    <t>+217</t>
-  </si>
-  <si>
-    <t>+268</t>
-  </si>
-  <si>
-    <t>+383</t>
-  </si>
-  <si>
-    <t>+747</t>
-  </si>
-  <si>
-    <t>+4662</t>
-  </si>
-  <si>
-    <t>+99900</t>
+    <t>-920</t>
+  </si>
+  <si>
+    <t>-159</t>
+  </si>
+  <si>
+    <t>+122</t>
+  </si>
+  <si>
+    <t>+2930</t>
   </si>
   <si>
     <t>+∞</t>
@@ -168,40 +153,40 @@
     <t>Probability</t>
   </si>
   <si>
-    <t>43.8%</t>
-  </si>
-  <si>
-    <t>30.2%</t>
-  </si>
-  <si>
-    <t>25.7%</t>
-  </si>
-  <si>
-    <t>0.3%</t>
-  </si>
-  <si>
-    <t>+128</t>
-  </si>
-  <si>
-    <t>+231</t>
-  </si>
-  <si>
-    <t>+289</t>
-  </si>
-  <si>
-    <t>+33233</t>
-  </si>
-  <si>
-    <t>61.8%</t>
-  </si>
-  <si>
-    <t>38.1%</t>
-  </si>
-  <si>
-    <t>-162</t>
-  </si>
-  <si>
-    <t>+162</t>
+    <t>69.1%</t>
+  </si>
+  <si>
+    <t>22.7%</t>
+  </si>
+  <si>
+    <t>5.4%</t>
+  </si>
+  <si>
+    <t>2.8%</t>
+  </si>
+  <si>
+    <t>-224</t>
+  </si>
+  <si>
+    <t>+341</t>
+  </si>
+  <si>
+    <t>+1752</t>
+  </si>
+  <si>
+    <t>+3471</t>
+  </si>
+  <si>
+    <t>98.3%</t>
+  </si>
+  <si>
+    <t>1.7%</t>
+  </si>
+  <si>
+    <t>-5782</t>
+  </si>
+  <si>
+    <t>+5782</t>
   </si>
 </sst>
 </file>
@@ -587,10 +572,10 @@
         <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -598,13 +583,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -615,10 +600,10 @@
         <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -626,13 +611,13 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -643,10 +628,10 @@
         <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -654,13 +639,13 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -668,13 +653,13 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -682,13 +667,13 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -696,13 +681,13 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -710,13 +695,13 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C11" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -724,13 +709,13 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D12" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -738,13 +723,13 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C13" t="s">
         <v>37</v>
       </c>
       <c r="D13" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -752,13 +737,13 @@
         <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D14" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -766,13 +751,13 @@
         <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D15" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -780,13 +765,13 @@
         <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D16" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -794,13 +779,13 @@
         <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D17" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -811,10 +796,10 @@
         <v>28</v>
       </c>
       <c r="C18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D18" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -825,10 +810,10 @@
         <v>27</v>
       </c>
       <c r="C19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D19" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -852,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -860,184 +845,184 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
         <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D3" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D4" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
         <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D5" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
         <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D6" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D7" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D8" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D9" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D10" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D11" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D12" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D13" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B14" t="s">
         <v>27</v>
       </c>
       <c r="C14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D14" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1045,13 +1030,13 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D15" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1062,38 +1047,38 @@
         <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D16" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D17" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B18" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D18" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1104,10 +1089,10 @@
         <v>27</v>
       </c>
       <c r="C19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D19" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -1131,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -1139,226 +1124,226 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D2" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D3" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C4" t="s">
         <v>37</v>
       </c>
       <c r="D4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D5" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D6" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D7" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D8" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D9" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D10" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D11" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B12" t="s">
         <v>27</v>
       </c>
       <c r="C12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D12" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D13" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D14" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B15" t="s">
         <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D15" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D16" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B17" t="s">
         <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D17" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1369,10 +1354,10 @@
         <v>22</v>
       </c>
       <c r="C18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D18" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1383,10 +1368,10 @@
         <v>27</v>
       </c>
       <c r="C19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D19" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/odds/The Girl's Room 💞🏈 2025 Betting Odds.xlsx
+++ b/odds/The Girl's Room 💞🏈 2025 Betting Odds.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="38">
   <si>
     <t>Record</t>
   </si>
@@ -33,160 +33,103 @@
     <t>Tush Push Director 🍑</t>
   </si>
   <si>
+    <t>Say Cheese 🧀💚🧀</t>
+  </si>
+  <si>
+    <t>Nothing Beats A Jets 2 Holiday</t>
+  </si>
+  <si>
+    <t>Flock Around and Find Out</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nikki  </t>
+  </si>
+  <si>
     <t>Becca’s Ballers</t>
   </si>
   <si>
-    <t>Flock Around and Find Out</t>
-  </si>
-  <si>
-    <t>Say Cheese 🧀💚🧀</t>
-  </si>
-  <si>
-    <t>Nothing Beats A Jets 2 Holiday</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nikki  </t>
+    <t>Serving Punt</t>
+  </si>
+  <si>
+    <t>Nicole's Nifty Team</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shae's Sunday Scaries </t>
+  </si>
+  <si>
+    <t>It's Miller Time</t>
+  </si>
+  <si>
+    <t>Men in Tight(End)s</t>
+  </si>
+  <si>
+    <t>Breezy’s Bros</t>
+  </si>
+  <si>
+    <t>Sacks and the City</t>
+  </si>
+  <si>
+    <t>Gridiron Grace</t>
+  </si>
+  <si>
+    <t>Hurts so good</t>
   </si>
   <si>
     <t>Face Down Sacks Up</t>
   </si>
   <si>
-    <t xml:space="preserve">Shae's Sunday Scaries </t>
-  </si>
-  <si>
-    <t>It's Miller Time</t>
-  </si>
-  <si>
-    <t>Serving Punt</t>
-  </si>
-  <si>
-    <t>Nicole's Nifty Team</t>
-  </si>
-  <si>
-    <t>Men in Tight(End)s</t>
-  </si>
-  <si>
-    <t>Breezy’s Bros</t>
-  </si>
-  <si>
-    <t>Sacks and the City</t>
-  </si>
-  <si>
-    <t>Gridiron Grace</t>
-  </si>
-  <si>
-    <t>Hurts so good</t>
-  </si>
-  <si>
     <t>Faith's Fantastic Team</t>
   </si>
   <si>
     <t>Lamb of Goedert</t>
   </si>
   <si>
-    <t>11-3</t>
-  </si>
-  <si>
-    <t>10-4</t>
-  </si>
-  <si>
-    <t>8-6</t>
-  </si>
-  <si>
-    <t>7-6-1</t>
-  </si>
-  <si>
-    <t>7-7</t>
-  </si>
-  <si>
-    <t>5-9</t>
-  </si>
-  <si>
-    <t>6-8</t>
-  </si>
-  <si>
-    <t>4-10</t>
-  </si>
-  <si>
-    <t>6-7-1</t>
-  </si>
-  <si>
-    <t>3-11</t>
+    <t>12-3</t>
+  </si>
+  <si>
+    <t>10-5</t>
+  </si>
+  <si>
+    <t>9-6</t>
+  </si>
+  <si>
+    <t>11-4</t>
+  </si>
+  <si>
+    <t>7-8</t>
+  </si>
+  <si>
+    <t>5-10</t>
+  </si>
+  <si>
+    <t>6-9</t>
+  </si>
+  <si>
+    <t>6-8-1</t>
+  </si>
+  <si>
+    <t>8-7</t>
+  </si>
+  <si>
+    <t>3-12</t>
+  </si>
+  <si>
+    <t>7-7-1</t>
   </si>
   <si>
     <t>100.0%</t>
   </si>
   <si>
-    <t>90.2%</t>
-  </si>
-  <si>
-    <t>61.4%</t>
-  </si>
-  <si>
-    <t>45.1%</t>
-  </si>
-  <si>
-    <t>3.3%</t>
-  </si>
-  <si>
     <t>0.0%</t>
   </si>
   <si>
     <t>-∞</t>
   </si>
   <si>
-    <t>-920</t>
-  </si>
-  <si>
-    <t>-159</t>
-  </si>
-  <si>
-    <t>+122</t>
-  </si>
-  <si>
-    <t>+2930</t>
-  </si>
-  <si>
     <t>+∞</t>
   </si>
   <si>
     <t>Probability</t>
-  </si>
-  <si>
-    <t>69.1%</t>
-  </si>
-  <si>
-    <t>22.7%</t>
-  </si>
-  <si>
-    <t>5.4%</t>
-  </si>
-  <si>
-    <t>2.8%</t>
-  </si>
-  <si>
-    <t>-224</t>
-  </si>
-  <si>
-    <t>+341</t>
-  </si>
-  <si>
-    <t>+1752</t>
-  </si>
-  <si>
-    <t>+3471</t>
-  </si>
-  <si>
-    <t>98.3%</t>
-  </si>
-  <si>
-    <t>1.7%</t>
-  </si>
-  <si>
-    <t>-5782</t>
-  </si>
-  <si>
-    <t>+5782</t>
   </si>
 </sst>
 </file>
@@ -572,10 +515,10 @@
         <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -586,10 +529,10 @@
         <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -597,13 +540,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -611,13 +554,13 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -631,7 +574,7 @@
         <v>33</v>
       </c>
       <c r="D6" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -639,13 +582,13 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D7" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -653,13 +596,13 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D8" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -667,13 +610,13 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D9" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -681,13 +624,13 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D10" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -698,10 +641,10 @@
         <v>28</v>
       </c>
       <c r="C11" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D11" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -709,13 +652,13 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D12" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -723,13 +666,13 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C13" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D13" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -740,10 +683,10 @@
         <v>30</v>
       </c>
       <c r="C14" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D14" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -751,13 +694,13 @@
         <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C15" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D15" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -765,13 +708,13 @@
         <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C16" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D16" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -779,13 +722,13 @@
         <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C17" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D17" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -796,10 +739,10 @@
         <v>28</v>
       </c>
       <c r="C18" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D18" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -810,10 +753,10 @@
         <v>27</v>
       </c>
       <c r="C19" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D19" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -837,7 +780,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -851,234 +794,234 @@
         <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="D2" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="D3" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C4" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="D4" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="C5" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="D5" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D6" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B7" t="s">
         <v>28</v>
       </c>
       <c r="C7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D7" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D8" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D9" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D10" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D11" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D12" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C13" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D13" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D14" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D15" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B16" t="s">
         <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D16" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C17" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D17" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B18" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D18" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1089,10 +1032,10 @@
         <v>27</v>
       </c>
       <c r="C19" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D19" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1116,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -1124,30 +1067,30 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
         <v>31</v>
       </c>
       <c r="C2" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D2" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="D3" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1158,206 +1101,206 @@
         <v>28</v>
       </c>
       <c r="C4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D4" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="C5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D5" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6" t="s">
         <v>28</v>
       </c>
       <c r="C6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D6" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D7" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D8" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
         <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D9" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C10" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D10" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D11" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C12" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D12" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D13" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D14" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B15" t="s">
         <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D15" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C16" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D16" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D17" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B18" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C18" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D18" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1368,10 +1311,10 @@
         <v>27</v>
       </c>
       <c r="C19" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D19" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/odds/The Girl's Room 💞🏈 2025 Betting Odds.xlsx
+++ b/odds/The Girl's Room 💞🏈 2025 Betting Odds.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="36">
   <si>
     <t>Record</t>
   </si>
@@ -105,16 +105,10 @@
     <t>6-9</t>
   </si>
   <si>
-    <t>6-8-1</t>
-  </si>
-  <si>
     <t>8-7</t>
   </si>
   <si>
     <t>3-12</t>
-  </si>
-  <si>
-    <t>7-7-1</t>
   </si>
   <si>
     <t>100.0%</t>
@@ -515,10 +509,10 @@
         <v>22</v>
       </c>
       <c r="C2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" t="s">
         <v>33</v>
-      </c>
-      <c r="D2" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -529,10 +523,10 @@
         <v>23</v>
       </c>
       <c r="C3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" t="s">
         <v>33</v>
-      </c>
-      <c r="D3" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -543,10 +537,10 @@
         <v>24</v>
       </c>
       <c r="C4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" t="s">
         <v>33</v>
-      </c>
-      <c r="D4" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -557,10 +551,10 @@
         <v>25</v>
       </c>
       <c r="C5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" t="s">
         <v>33</v>
-      </c>
-      <c r="D5" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -571,10 +565,10 @@
         <v>24</v>
       </c>
       <c r="C6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" t="s">
         <v>33</v>
-      </c>
-      <c r="D6" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -585,10 +579,10 @@
         <v>23</v>
       </c>
       <c r="C7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" t="s">
         <v>33</v>
-      </c>
-      <c r="D7" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -599,10 +593,10 @@
         <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -613,10 +607,10 @@
         <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -627,10 +621,10 @@
         <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -641,10 +635,10 @@
         <v>28</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -655,10 +649,10 @@
         <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D12" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -666,13 +660,13 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -680,13 +674,13 @@
         <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C14" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D14" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -697,10 +691,10 @@
         <v>28</v>
       </c>
       <c r="C15" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D15" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -708,13 +702,13 @@
         <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C16" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D16" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -722,13 +716,13 @@
         <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D17" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -739,10 +733,10 @@
         <v>28</v>
       </c>
       <c r="C18" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D18" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -753,10 +747,10 @@
         <v>27</v>
       </c>
       <c r="C19" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D19" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -780,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -794,10 +788,10 @@
         <v>22</v>
       </c>
       <c r="C2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" t="s">
         <v>33</v>
-      </c>
-      <c r="D2" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -805,13 +799,13 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -822,10 +816,10 @@
         <v>28</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -833,13 +827,13 @@
         <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -847,13 +841,13 @@
         <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -864,10 +858,10 @@
         <v>28</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -875,13 +869,13 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -892,10 +886,10 @@
         <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -906,10 +900,10 @@
         <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -920,10 +914,10 @@
         <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -934,10 +928,10 @@
         <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D12" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -948,10 +942,10 @@
         <v>28</v>
       </c>
       <c r="C13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -962,10 +956,10 @@
         <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D14" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -976,10 +970,10 @@
         <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D15" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -990,10 +984,10 @@
         <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D16" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1004,10 +998,10 @@
         <v>27</v>
       </c>
       <c r="C17" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D17" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1018,10 +1012,10 @@
         <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D18" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1032,10 +1026,10 @@
         <v>27</v>
       </c>
       <c r="C19" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D19" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1059,7 +1053,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -1070,13 +1064,13 @@
         <v>18</v>
       </c>
       <c r="B2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" t="s">
         <v>31</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>33</v>
-      </c>
-      <c r="D2" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1087,10 +1081,10 @@
         <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1101,10 +1095,10 @@
         <v>28</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1112,13 +1106,13 @@
         <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1129,10 +1123,10 @@
         <v>28</v>
       </c>
       <c r="C6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1140,13 +1134,13 @@
         <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1157,10 +1151,10 @@
         <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1171,10 +1165,10 @@
         <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1182,13 +1176,13 @@
         <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1199,10 +1193,10 @@
         <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1213,10 +1207,10 @@
         <v>28</v>
       </c>
       <c r="C12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D12" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1227,10 +1221,10 @@
         <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1241,10 +1235,10 @@
         <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D14" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1255,10 +1249,10 @@
         <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D15" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1269,10 +1263,10 @@
         <v>27</v>
       </c>
       <c r="C16" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D16" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1283,10 +1277,10 @@
         <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D17" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1297,10 +1291,10 @@
         <v>23</v>
       </c>
       <c r="C18" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D18" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1311,10 +1305,10 @@
         <v>27</v>
       </c>
       <c r="C19" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D19" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
